--- a/Project (1)/Input (1) - Performance Analysis.xlsx
+++ b/Project (1)/Input (1) - Performance Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82184DF6-D13F-44F1-B3EB-2E34074A24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE9A3F3-C404-4E74-9F50-213B4A216134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{621C8C1F-F23C-47AE-9883-70A6CB55D7E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>HTML FILE: Bit String (1)</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Duplicate patterns</t>
+  </si>
+  <si>
+    <t>Pattern Size</t>
   </si>
 </sst>
 </file>
@@ -130,14 +133,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -151,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -159,11 +161,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,16 +328,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -202,9 +442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,670 +738,673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A10EB-BA92-4274-83E3-E378E7D3AFDD}">
-  <dimension ref="B4:N35"/>
+  <dimension ref="B3:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30">
         <v>1010</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="31">
         <v>3841260</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="32">
         <v>15.6266</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="33">
         <v>127631</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="31">
         <v>2816639</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="32">
         <v>20.4299</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="33">
         <v>127631</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="32">
         <v>2648915</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="32">
         <v>20.372299999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="33">
         <v>127631</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="26">
         <v>1100</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="28">
         <v>3841516</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <v>16.1629</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>127702</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="28">
         <v>2815350</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
         <v>18.973400000000002</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="10">
         <v>127702</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="9">
         <v>2211442</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="9">
         <v>18.410399999999999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="10">
         <v>127702</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="28">
         <v>3840713</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <v>15.498900000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>127684</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="28">
         <v>2816788</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="9">
         <v>19.6389</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="10">
         <v>127684</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="9">
         <v>2648667</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="9">
         <v>19.9999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="10">
         <v>127684</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="2" t="s">
+    <row r="9" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="29">
         <v>3840574</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="13">
         <v>15.526300000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="14">
         <v>127649</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="29">
         <v>2816395</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="13">
         <v>17.412299999999998</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="14">
         <v>127649</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="13">
         <v>2211779</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="13">
         <v>17.933499999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="14">
         <v>127649</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="31">
         <v>4078745</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="32">
         <v>15.914099999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="33">
         <v>7231</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="31">
         <v>3054113</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="32">
         <v>18.544499999999999</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="33">
         <v>7231</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="32">
         <v>1264422</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="32">
         <v>10.8987</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="33">
         <v>7231</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="28">
         <v>4082255</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="9">
         <v>16.128299999999999</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>8129</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="28">
         <v>1984398</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="9">
         <v>13.053000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="10">
         <v>8129</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="9">
         <v>1236848</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="9">
         <v>10.7788</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="10">
         <v>8129</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="28">
         <v>4078247</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <v>16.083500000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>7229</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="28">
         <v>3054337</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="9">
         <v>19.660699999999999</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="10">
         <v>7229</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="9">
         <v>1264488</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="9">
         <v>10.977</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="10">
         <v>7229</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="28">
         <v>4078740</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <v>16.117599999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <v>7540</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="28">
         <v>3054663</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="9">
         <v>17.243300000000001</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <v>7540</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="9">
         <v>1673606</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="9">
         <v>13.561400000000001</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="10">
         <v>7540</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2" t="s">
+    <row r="14" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="29">
         <v>4079788</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="13">
         <v>16.3065</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="14">
         <v>7543</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="29">
         <v>3053753</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="13">
         <v>18.960699999999999</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="14">
         <v>7543</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="13">
         <v>1673941</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="13">
         <v>13.5669</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="14">
         <v>7543</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="28">
         <v>2048550</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="9">
         <v>12.610099999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="10">
         <v>1024474</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="28">
         <v>2048550</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="9">
         <v>18.2879</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="10">
         <v>1024474</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="9">
         <v>2048550</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="9">
         <v>18.130099999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="10">
         <v>1024474</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="28">
         <v>3073022</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <v>14.3476</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="10">
         <v>512356</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="28">
         <v>2047903</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="9">
         <v>15.4742</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="10">
         <v>512356</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="9">
         <v>2047903</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="9">
         <v>16.043199999999999</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="10">
         <v>512356</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="28">
         <v>3841587</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="9">
         <v>15.4011</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <v>127811</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="28">
         <v>1745725</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="9">
         <v>11.097300000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="10">
         <v>127811</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="9">
         <v>1391112</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="9">
         <v>10.6469</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="10">
         <v>127811</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="28">
         <v>4080095</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <v>16.0959</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="10">
         <v>7338</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="28">
         <v>1120518</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="9">
         <v>6.8895999999999997</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="10">
         <v>7338</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="9">
         <v>612909</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="9">
         <v>5.2914000000000003</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="10">
         <v>7338</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="28">
         <v>2048550</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="9">
         <v>12.760400000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
         <v>1024076</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="28">
         <v>2048550</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="9">
         <v>17.117699999999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="10">
         <v>1024076</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="9">
         <v>2048550</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="9">
         <v>17.893799999999999</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="10">
         <v>1024076</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="28">
         <v>3072625</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="9">
         <v>14.459199999999999</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <v>511959</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="28">
         <v>2047399</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="9">
         <v>14.870200000000001</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="10">
         <v>511959</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="9">
         <v>2047399</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="9">
         <v>15.985099999999999</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="10">
         <v>511959</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="28">
         <v>3840547</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="9">
         <v>15.4879</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
         <v>127668</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="28">
         <v>1744782</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="9">
         <v>11.9618</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="10">
         <v>127668</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="9">
         <v>1390465</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="9">
         <v>10.5009</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="10">
         <v>127668</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="2" t="s">
+    <row r="22" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="29">
         <v>4078729</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="13">
         <v>16.028500000000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="14">
         <v>7300</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="29">
         <v>1119674</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="13">
         <v>6.1478999999999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="14">
         <v>7300</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="13">
         <v>612303</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="13">
         <v>4.9017999999999997</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="14">
         <v>7300</v>
       </c>
     </row>
@@ -1265,14 +1508,16 @@
       <c r="E35" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B15:D22"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="B5:D9"/>
     <mergeCell ref="B10:D14"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
